--- a/tugas9/.tabel.xlsx
+++ b/tugas9/.tabel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11850" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11850" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="async" sheetId="4" r:id="rId1"/>
@@ -395,7 +395,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,7 +440,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2">
-        <v>0.41699999999999998</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="D2" s="2">
         <v>1000</v>
@@ -449,16 +449,16 @@
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>159000</v>
+        <v>122000</v>
       </c>
       <c r="G2" s="2">
-        <v>2399.3200000000002</v>
+        <v>2495.7399999999998</v>
       </c>
       <c r="H2" s="2">
-        <v>0.41699999999999998</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="I2" s="2">
-        <v>327.55</v>
+        <v>297.54000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -469,7 +469,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>0.32800000000000001</v>
+        <v>0.314</v>
       </c>
       <c r="D3" s="2">
         <v>1000</v>
@@ -478,16 +478,16 @@
         <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>159000</v>
+        <v>122000</v>
       </c>
       <c r="G3" s="2">
-        <v>3045.24</v>
+        <v>3185.2</v>
       </c>
       <c r="H3" s="2">
-        <v>1.6419999999999999</v>
+        <v>1.57</v>
       </c>
       <c r="I3" s="2">
-        <v>472.85</v>
+        <v>379.49</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -498,7 +498,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="2">
-        <v>0.36099999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="D4" s="2">
         <v>1000</v>
@@ -507,16 +507,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>159000</v>
+        <v>122000</v>
       </c>
       <c r="G4" s="2">
-        <v>2769.32</v>
+        <v>3330.35</v>
       </c>
       <c r="H4" s="2">
-        <v>3.6110000000000002</v>
+        <v>3.0030000000000001</v>
       </c>
       <c r="I4" s="2">
-        <v>430</v>
+        <v>396.78</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -527,7 +527,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="2">
-        <v>0.36099999999999999</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="D5" s="2">
         <v>1000</v>
@@ -536,16 +536,16 @@
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>159000</v>
+        <v>122000</v>
       </c>
       <c r="G5" s="2">
-        <v>2767.1</v>
+        <v>3048.95</v>
       </c>
       <c r="H5" s="2">
-        <v>7.2279999999999998</v>
+        <v>6.56</v>
       </c>
       <c r="I5" s="2">
-        <v>429.66</v>
+        <v>363.25</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -556,7 +556,7 @@
         <v>50</v>
       </c>
       <c r="C6" s="2">
-        <v>0.34699999999999998</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="D6" s="2">
         <v>1000</v>
@@ -565,16 +565,16 @@
         <v>0</v>
       </c>
       <c r="F6" s="2">
-        <v>159000</v>
+        <v>122000</v>
       </c>
       <c r="G6" s="2">
-        <v>2883.73</v>
+        <v>3298.31</v>
       </c>
       <c r="H6" s="2">
-        <v>17.338999999999999</v>
+        <v>15.159000000000001</v>
       </c>
       <c r="I6" s="2">
-        <v>447.77</v>
+        <v>392.96</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -585,7 +585,7 @@
         <v>75</v>
       </c>
       <c r="C7" s="2">
-        <v>0.41499999999999998</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="D7" s="2">
         <v>1000</v>
@@ -594,16 +594,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="2">
-        <v>159000</v>
+        <v>122000</v>
       </c>
       <c r="G7" s="2">
-        <v>2411.6799999999998</v>
+        <v>3538.61</v>
       </c>
       <c r="H7" s="2">
-        <v>31.099</v>
+        <v>21.195</v>
       </c>
       <c r="I7" s="2">
-        <v>374.47</v>
+        <v>421.59</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -614,7 +614,7 @@
         <v>100</v>
       </c>
       <c r="C8" s="2">
-        <v>0.35499999999999998</v>
+        <v>0.28699999999999998</v>
       </c>
       <c r="D8" s="2">
         <v>1000</v>
@@ -623,16 +623,16 @@
         <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>159000</v>
+        <v>122000</v>
       </c>
       <c r="G8" s="2">
-        <v>2814.35</v>
+        <v>3483.14</v>
       </c>
       <c r="H8" s="2">
-        <v>35.531999999999996</v>
+        <v>28.71</v>
       </c>
       <c r="I8" s="2">
-        <v>436.99</v>
+        <v>414.98</v>
       </c>
     </row>
   </sheetData>
@@ -644,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2">
-        <v>512.31500000000005</v>
+        <v>290.08100000000002</v>
       </c>
       <c r="D2" s="2">
         <v>1000</v>
@@ -699,16 +699,16 @@
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>159000</v>
+        <v>122000</v>
       </c>
       <c r="G2" s="2">
-        <v>1.95</v>
+        <v>3.45</v>
       </c>
       <c r="H2" s="2">
-        <v>512.31500000000005</v>
+        <v>290.08100000000002</v>
       </c>
       <c r="I2" s="2">
-        <v>0.3</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -719,7 +719,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>160.80099999999999</v>
+        <v>82.649000000000001</v>
       </c>
       <c r="D3" s="2">
         <v>1000</v>
@@ -728,16 +728,16 @@
         <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>159000</v>
+        <v>122000</v>
       </c>
       <c r="G3" s="2">
-        <v>6.22</v>
+        <v>12.1</v>
       </c>
       <c r="H3" s="2">
-        <v>804.00599999999997</v>
+        <v>413.24299999999999</v>
       </c>
       <c r="I3" s="2">
-        <v>0.97</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -748,7 +748,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="2">
-        <v>154.90100000000001</v>
+        <v>77.94</v>
       </c>
       <c r="D4" s="2">
         <v>1000</v>
@@ -757,16 +757,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>159000</v>
+        <v>122000</v>
       </c>
       <c r="G4" s="2">
-        <v>6.46</v>
+        <v>12.83</v>
       </c>
       <c r="H4" s="2">
-        <v>1549.011</v>
+        <v>779.399</v>
       </c>
       <c r="I4" s="2">
-        <v>1</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1116,7 +1116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>

--- a/tugas9/.tabel.xlsx
+++ b/tugas9/.tabel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11850" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11850" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="async" sheetId="4" r:id="rId1"/>
@@ -644,7 +644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -895,7 +895,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,13 +968,27 @@
       <c r="B3" s="2">
         <v>5</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="C3" s="2">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>122000</v>
+      </c>
+      <c r="G3" s="2">
+        <v>4177.72</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1.1970000000000001</v>
+      </c>
+      <c r="I3" s="2">
+        <v>497.74</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -1070,13 +1084,27 @@
       <c r="B7" s="2">
         <v>75</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="C7" s="2">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>122000</v>
+      </c>
+      <c r="G7" s="2">
+        <v>4252.0600000000004</v>
+      </c>
+      <c r="H7" s="2">
+        <v>17.638999999999999</v>
+      </c>
+      <c r="I7" s="2">
+        <v>506.59</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -1116,8 +1144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,13 +1218,27 @@
       <c r="B3" s="2">
         <v>5</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="C3" s="2">
+        <v>11.082000000000001</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>122000</v>
+      </c>
+      <c r="G3" s="2">
+        <v>90.23</v>
+      </c>
+      <c r="H3" s="2">
+        <v>55.411999999999999</v>
+      </c>
+      <c r="I3" s="2">
+        <v>10.75</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
